--- a/Title Seniority.xlsx
+++ b/Title Seniority.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Dais Team Drive\1. Policy + Research\4. Pre-Integration Projects\1. BII+E Pre-Integrations Projects\3. Workstream  Jobs, Skills + Technology Change\202301 - Microcredentials and Labour Market Outcomes\Execution\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\OneDrive\Desktop\Brookfield 2023\Microcredentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A2CC41-07DC-4C11-B0C7-AC6EBF37A483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CA0E17-33D8-4CC2-86DE-6608A6C1D62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B2F33B0-B997-4D8A-97DA-F6E58602469C}"/>
+    <workbookView xWindow="3053" yWindow="3165" windowWidth="15390" windowHeight="9532" activeTab="1" xr2:uid="{4B2F33B0-B997-4D8A-97DA-F6E58602469C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Scientist Senior" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="111">
   <si>
     <t>Titles</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>Entry</t>
+  </si>
+  <si>
+    <t>level</t>
   </si>
 </sst>
 </file>
@@ -385,6 +388,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -726,27 +730,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E29A15-445C-4078-A118-1D83CCA2699D}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -757,7 +761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -768,7 +772,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,7 +783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,7 +794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,7 +805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,7 +816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,7 +827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -834,7 +838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -845,7 +849,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -856,7 +860,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -867,7 +871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -878,7 +882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -889,7 +893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -900,7 +904,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -911,7 +915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -922,7 +926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -933,7 +937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -944,7 +948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -955,7 +959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -966,7 +970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -977,7 +981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -988,7 +992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -1406,7 +1410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>27</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
@@ -1547,27 +1551,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870A6FB7-53A6-454B-BE69-E89E566847B5}">
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1721,7 +1725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1754,7 +1758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1831,7 +1835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1897,7 +1901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1908,7 +1912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1930,7 +1934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1941,7 +1945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1985,7 +1989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1996,7 +2000,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2062,7 +2066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -2084,7 +2088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -2106,7 +2110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -2117,7 +2121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -2128,7 +2132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -2139,7 +2143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -2161,7 +2165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>92</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -2183,7 +2187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -2194,7 +2198,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -2227,7 +2231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -2249,7 +2253,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>101</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>104</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -2326,7 +2330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -2337,7 +2341,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>56</v>
       </c>
@@ -2392,7 +2396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -2414,7 +2418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -2447,7 +2451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>65</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -2513,7 +2517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -2557,7 +2561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>64</v>
       </c>
@@ -2568,7 +2572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2579,7 +2583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -2623,7 +2627,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -2634,7 +2638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -2656,7 +2660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>93</v>
       </c>
@@ -2667,7 +2671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>61</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>68</v>
       </c>
@@ -2711,7 +2715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>72</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -2766,7 +2770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>57</v>
       </c>
@@ -2810,7 +2814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>67</v>
       </c>
@@ -2821,7 +2825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>77</v>
       </c>
@@ -2832,7 +2836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>42</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>55</v>
       </c>
@@ -2865,7 +2869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>91</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>47</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>50</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>48</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>54</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>89</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>63</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>101</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>66</v>
       </c>
@@ -2986,7 +2990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>51</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>44</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>85</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>75</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>83</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>100</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>79</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>102</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>74</v>
       </c>
@@ -3096,7 +3100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>103</v>
       </c>
@@ -3107,7 +3111,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>90</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>45</v>
       </c>

--- a/Title Seniority.xlsx
+++ b/Title Seniority.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\OneDrive\Desktop\Brookfield 2023\Microcredentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CA0E17-33D8-4CC2-86DE-6608A6C1D62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CA6E9F-BCA2-41D2-B4FA-EE782BA22468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3053" yWindow="3165" windowWidth="15390" windowHeight="9532" activeTab="1" xr2:uid="{4B2F33B0-B997-4D8A-97DA-F6E58602469C}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{4B2F33B0-B997-4D8A-97DA-F6E58602469C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Scientist Senior" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="115">
   <si>
     <t>Titles</t>
   </si>
@@ -370,6 +370,18 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>Junior Application Developer</t>
+  </si>
+  <si>
+    <t>Senior Associate Programmer</t>
+  </si>
+  <si>
+    <t>Software Project Manager</t>
+  </si>
+  <si>
+    <t>System Software Engineer</t>
   </si>
 </sst>
 </file>
@@ -734,12 +746,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -761,7 +773,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,7 +784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -783,7 +795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,7 +806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,7 +817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,7 +828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,7 +850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -849,7 +861,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -860,7 +872,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -871,7 +883,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -882,7 +894,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -893,7 +905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -904,7 +916,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -915,7 +927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -926,7 +938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -937,7 +949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -948,7 +960,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -959,7 +971,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -970,7 +982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -981,7 +993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -992,7 +1004,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +1015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1014,7 +1026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1025,7 +1037,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1036,7 +1048,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1047,7 +1059,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1091,7 +1103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1102,7 +1114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1113,7 +1125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1135,7 +1147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
@@ -1179,7 +1191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
@@ -1190,7 +1202,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
@@ -1201,7 +1213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,7 +1224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -1234,7 +1246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1245,7 +1257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -1300,7 +1312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -1311,7 +1323,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -1322,7 +1334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -1333,7 +1345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -1344,7 +1356,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1355,7 +1367,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -1388,7 +1400,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -1421,7 +1433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -1432,7 +1444,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -1454,7 +1466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>27</v>
       </c>
@@ -1465,7 +1477,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1488,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
@@ -1487,7 +1499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>35</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>30</v>
       </c>
@@ -1520,7 +1532,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,18 +1561,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870A6FB7-53A6-454B-BE69-E89E566847B5}">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1593,7 +1605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1604,7 +1616,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1615,7 +1627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1626,7 +1638,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1637,7 +1649,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1659,7 +1671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1670,7 +1682,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1681,7 +1693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1692,7 +1704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1703,7 +1715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1714,7 +1726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1725,7 +1737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1736,7 +1748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1747,7 +1759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1758,7 +1770,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1769,7 +1781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1780,7 +1792,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1802,7 +1814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1813,7 +1825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1824,7 +1836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1835,7 +1847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1846,7 +1858,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1857,7 +1869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -1879,7 +1891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1890,7 +1902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -1901,7 +1913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1912,7 +1924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1934,7 +1946,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1967,7 +1979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1978,7 +1990,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1989,7 +2001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2000,7 +2012,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -2011,7 +2023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -2033,7 +2045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -2055,7 +2067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2066,7 +2078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -2077,7 +2089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -2088,7 +2100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -2099,7 +2111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -2121,7 +2133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>91</v>
       </c>
@@ -2165,7 +2177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>92</v>
       </c>
@@ -2176,7 +2188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -2187,7 +2199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -2198,7 +2210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -2209,7 +2221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -2231,7 +2243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>101</v>
       </c>
@@ -2275,7 +2287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -2286,7 +2298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -2297,7 +2309,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>104</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>105</v>
       </c>
@@ -2319,7 +2331,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -2330,7 +2342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>107</v>
       </c>
@@ -2341,7 +2353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>108</v>
       </c>
@@ -2352,7 +2364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -2363,7 +2375,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2374,7 +2386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>56</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -2418,7 +2430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -2440,7 +2452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -2451,7 +2463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>53</v>
       </c>
@@ -2462,7 +2474,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -2473,7 +2485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>65</v>
       </c>
@@ -2484,7 +2496,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -2495,7 +2507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -2506,7 +2518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -2517,7 +2529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -2539,7 +2551,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -2550,7 +2562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>64</v>
       </c>
@@ -2572,7 +2584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2583,7 +2595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -2594,7 +2606,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -2605,7 +2617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2616,7 +2628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -2627,7 +2639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -2638,7 +2650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -2649,7 +2661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -2660,7 +2672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>93</v>
       </c>
@@ -2671,7 +2683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -2682,7 +2694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -2693,7 +2705,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>61</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>68</v>
       </c>
@@ -2715,7 +2727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>72</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>40</v>
       </c>
@@ -2759,7 +2771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -2770,7 +2782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -2781,7 +2793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>99</v>
       </c>
@@ -2792,7 +2804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>58</v>
       </c>
@@ -2803,7 +2815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>57</v>
       </c>
@@ -2814,7 +2826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>67</v>
       </c>
@@ -2825,7 +2837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>77</v>
       </c>
@@ -2836,7 +2848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>42</v>
       </c>
@@ -2847,7 +2859,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -2858,7 +2870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>55</v>
       </c>
@@ -2869,7 +2881,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>91</v>
       </c>
@@ -2880,7 +2892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>47</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>50</v>
       </c>
@@ -2902,7 +2914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -2913,7 +2925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>48</v>
       </c>
@@ -2924,7 +2936,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>54</v>
       </c>
@@ -2935,7 +2947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>49</v>
       </c>
@@ -2946,7 +2958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>89</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>63</v>
       </c>
@@ -2968,7 +2980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>101</v>
       </c>
@@ -2979,7 +2991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>66</v>
       </c>
@@ -2990,7 +3002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>51</v>
       </c>
@@ -3001,7 +3013,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>44</v>
       </c>
@@ -3012,7 +3024,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>85</v>
       </c>
@@ -3023,7 +3035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>75</v>
       </c>
@@ -3034,7 +3046,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>83</v>
       </c>
@@ -3045,7 +3057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>100</v>
       </c>
@@ -3056,7 +3068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>79</v>
       </c>
@@ -3067,7 +3079,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -3078,7 +3090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>102</v>
       </c>
@@ -3089,7 +3101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>74</v>
       </c>
@@ -3100,7 +3112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>103</v>
       </c>
@@ -3111,7 +3123,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>90</v>
       </c>
@@ -3122,7 +3134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -3133,7 +3145,63 @@
         <v>109</v>
       </c>
     </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>111</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>112</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>113</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>114</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>